--- a/P4.X AWS response.xlsx
+++ b/P4.X AWS response.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meter https\last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F5F4FA-46F8-4BFB-A1AC-66FCAA9EA41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9FB66-7143-4360-AA19-6601380C76F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84FB0402-A050-4E6C-A42C-7F07478D3ABF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{84FB0402-A050-4E6C-A42C-7F07478D3ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Meters Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>{</t>
   </si>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">  "settingDatestamp":"2020-09-24 0"</t>
-  </si>
-  <si>
-    <t>not write to flash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>note</t>
@@ -289,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,12 +311,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -536,7 +526,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,7 +570,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,7 +982,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,11 +998,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,7 +1026,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,11 +1042,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,11 +1058,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,11 +1106,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,7 +1134,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,15 +1190,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,11 +1238,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,7 +1311,7 @@
             <xdr:cNvPr id="3" name="组合 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA61541-D59C-44A9-AD90-91B141CDA1C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1390,7 +1380,7 @@
                     <a14:compatExt spid="_x0000_s1043"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1437,7 +1427,7 @@
                     <a14:compatExt spid="_x0000_s1044"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1484,7 +1474,7 @@
                     <a14:compatExt spid="_x0000_s1045"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1531,7 +1521,7 @@
                     <a14:compatExt spid="_x0000_s1046"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1578,7 +1568,7 @@
                     <a14:compatExt spid="_x0000_s1047"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1625,7 +1615,7 @@
                     <a14:compatExt spid="_x0000_s1048"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1672,7 +1662,7 @@
                     <a14:compatExt spid="_x0000_s1049"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1719,7 +1709,7 @@
                     <a14:compatExt spid="_x0000_s1050"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1766,7 +1756,7 @@
                     <a14:compatExt spid="_x0000_s1051"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1813,7 +1803,7 @@
                     <a14:compatExt spid="_x0000_s1052"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1860,7 +1850,7 @@
                     <a14:compatExt spid="_x0000_s1053"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170E6F1-101F-49AF-8A38-DACC5B2BECA8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1907,7 +1897,7 @@
                     <a14:compatExt spid="_x0000_s1054"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE24FD6-35FF-4F3B-94C3-011557691718}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1954,7 +1944,7 @@
                     <a14:compatExt spid="_x0000_s1055"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B9FE5-A069-4810-98C1-5C4659C4C825}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2001,7 +1991,7 @@
                     <a14:compatExt spid="_x0000_s1056"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A56155-E862-42F5-B77E-0514BB2F6178}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2066,7 +2056,7 @@
             <xdr:cNvPr id="39" name="组合 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04ACB6DD-92B1-402B-A6FB-6944B2AC92F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2088,7 +2078,7 @@
                     <a14:compatExt spid="_x0000_s1058"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2135,7 +2125,7 @@
                     <a14:compatExt spid="_x0000_s1059"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2182,7 +2172,7 @@
                     <a14:compatExt spid="_x0000_s1060"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2229,7 +2219,7 @@
                     <a14:compatExt spid="_x0000_s1061"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2276,7 +2266,7 @@
                     <a14:compatExt spid="_x0000_s1062"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2323,7 +2313,7 @@
                     <a14:compatExt spid="_x0000_s1063"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2370,7 +2360,7 @@
                     <a14:compatExt spid="_x0000_s1064"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2417,7 +2407,7 @@
                     <a14:compatExt spid="_x0000_s1065"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2464,7 +2454,7 @@
                     <a14:compatExt spid="_x0000_s1066"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2511,7 +2501,7 @@
                     <a14:compatExt spid="_x0000_s1067"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2558,7 +2548,7 @@
                     <a14:compatExt spid="_x0000_s1068"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2605,7 +2595,7 @@
                     <a14:compatExt spid="_x0000_s1069"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170E6F1-101F-49AF-8A38-DACC5B2BECA8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2652,7 +2642,7 @@
                     <a14:compatExt spid="_x0000_s1070"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE24FD6-35FF-4F3B-94C3-011557691718}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2699,7 +2689,7 @@
                     <a14:compatExt spid="_x0000_s1071"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B9FE5-A069-4810-98C1-5C4659C4C825}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2746,7 +2736,7 @@
                     <a14:compatExt spid="_x0000_s1072"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A56155-E862-42F5-B77E-0514BB2F6178}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2811,7 +2801,7 @@
             <xdr:cNvPr id="55" name="组合 54">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2240C8-B4BA-4656-AD4B-4BE34BA921F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2833,7 +2823,7 @@
                     <a14:compatExt spid="_x0000_s1073"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2880,7 +2870,7 @@
                     <a14:compatExt spid="_x0000_s1074"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2927,7 +2917,7 @@
                     <a14:compatExt spid="_x0000_s1075"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2974,7 +2964,7 @@
                     <a14:compatExt spid="_x0000_s1076"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3021,7 +3011,7 @@
                     <a14:compatExt spid="_x0000_s1077"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3068,7 +3058,7 @@
                     <a14:compatExt spid="_x0000_s1078"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3115,7 +3105,7 @@
                     <a14:compatExt spid="_x0000_s1079"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3162,7 +3152,7 @@
                     <a14:compatExt spid="_x0000_s1080"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3209,7 +3199,7 @@
                     <a14:compatExt spid="_x0000_s1081"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3256,7 +3246,7 @@
                     <a14:compatExt spid="_x0000_s1082"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3303,7 +3293,7 @@
                     <a14:compatExt spid="_x0000_s1083"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3350,7 +3340,7 @@
                     <a14:compatExt spid="_x0000_s1084"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170E6F1-101F-49AF-8A38-DACC5B2BECA8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3397,7 +3387,7 @@
                     <a14:compatExt spid="_x0000_s1085"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE24FD6-35FF-4F3B-94C3-011557691718}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3444,7 +3434,7 @@
                     <a14:compatExt spid="_x0000_s1086"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B9FE5-A069-4810-98C1-5C4659C4C825}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3491,7 +3481,7 @@
                     <a14:compatExt spid="_x0000_s1087"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A56155-E862-42F5-B77E-0514BB2F6178}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3561,7 +3551,7 @@
             <xdr:cNvPr id="2" name="组合 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A576996-F0E2-41FF-8987-5BB846B259F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3583,7 +3573,7 @@
                     <a14:compatExt spid="_x0000_s2049"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3630,7 +3620,7 @@
                     <a14:compatExt spid="_x0000_s2050"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3677,7 +3667,7 @@
                     <a14:compatExt spid="_x0000_s2051"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3724,7 +3714,7 @@
                     <a14:compatExt spid="_x0000_s2052"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3771,7 +3761,7 @@
                     <a14:compatExt spid="_x0000_s2053"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3818,7 +3808,7 @@
                     <a14:compatExt spid="_x0000_s2054"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3865,7 +3855,7 @@
                     <a14:compatExt spid="_x0000_s2055"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3912,7 +3902,7 @@
                     <a14:compatExt spid="_x0000_s2056"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3959,7 +3949,7 @@
                     <a14:compatExt spid="_x0000_s2057"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4006,7 +3996,7 @@
                     <a14:compatExt spid="_x0000_s2058"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4053,7 +4043,7 @@
                     <a14:compatExt spid="_x0000_s2059"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4100,7 +4090,7 @@
                     <a14:compatExt spid="_x0000_s2060"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170E6F1-101F-49AF-8A38-DACC5B2BECA8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4147,7 +4137,7 @@
                     <a14:compatExt spid="_x0000_s2061"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE24FD6-35FF-4F3B-94C3-011557691718}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4194,7 +4184,7 @@
                     <a14:compatExt spid="_x0000_s2062"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B9FE5-A069-4810-98C1-5C4659C4C825}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4241,7 +4231,7 @@
                     <a14:compatExt spid="_x0000_s2063"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A56155-E862-42F5-B77E-0514BB2F6178}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4306,7 +4296,7 @@
             <xdr:cNvPr id="18" name="组合 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D7AA54-5AE4-4131-A05A-CBD54D4498ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4328,7 +4318,7 @@
                     <a14:compatExt spid="_x0000_s2064"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4375,7 +4365,7 @@
                     <a14:compatExt spid="_x0000_s2065"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4422,7 +4412,7 @@
                     <a14:compatExt spid="_x0000_s2066"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4469,7 +4459,7 @@
                     <a14:compatExt spid="_x0000_s2067"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4516,7 +4506,7 @@
                     <a14:compatExt spid="_x0000_s2068"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4563,7 +4553,7 @@
                     <a14:compatExt spid="_x0000_s2069"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4610,7 +4600,7 @@
                     <a14:compatExt spid="_x0000_s2070"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4657,7 +4647,7 @@
                     <a14:compatExt spid="_x0000_s2071"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4704,7 +4694,7 @@
                     <a14:compatExt spid="_x0000_s2072"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4751,7 +4741,7 @@
                     <a14:compatExt spid="_x0000_s2073"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4798,7 +4788,7 @@
                     <a14:compatExt spid="_x0000_s2074"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4845,7 +4835,7 @@
                     <a14:compatExt spid="_x0000_s2075"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170E6F1-101F-49AF-8A38-DACC5B2BECA8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4892,7 +4882,7 @@
                     <a14:compatExt spid="_x0000_s2076"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE24FD6-35FF-4F3B-94C3-011557691718}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4939,7 +4929,7 @@
                     <a14:compatExt spid="_x0000_s2077"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B9FE5-A069-4810-98C1-5C4659C4C825}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4986,7 +4976,7 @@
                     <a14:compatExt spid="_x0000_s2078"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A56155-E862-42F5-B77E-0514BB2F6178}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5051,7 +5041,7 @@
             <xdr:cNvPr id="34" name="组合 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586B4A20-622E-41BD-B804-850900A8CC38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5073,7 +5063,7 @@
                     <a14:compatExt spid="_x0000_s2079"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5120,7 +5110,7 @@
                     <a14:compatExt spid="_x0000_s2080"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5167,7 +5157,7 @@
                     <a14:compatExt spid="_x0000_s2081"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5214,7 +5204,7 @@
                     <a14:compatExt spid="_x0000_s2082"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5261,7 +5251,7 @@
                     <a14:compatExt spid="_x0000_s2083"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5308,7 +5298,7 @@
                     <a14:compatExt spid="_x0000_s2084"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5355,7 +5345,7 @@
                     <a14:compatExt spid="_x0000_s2085"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5402,7 +5392,7 @@
                     <a14:compatExt spid="_x0000_s2086"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5449,7 +5439,7 @@
                     <a14:compatExt spid="_x0000_s2087"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5496,7 +5486,7 @@
                     <a14:compatExt spid="_x0000_s2088"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5543,7 +5533,7 @@
                     <a14:compatExt spid="_x0000_s2089"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5590,7 +5580,7 @@
                     <a14:compatExt spid="_x0000_s2090"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170E6F1-101F-49AF-8A38-DACC5B2BECA8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5637,7 +5627,7 @@
                     <a14:compatExt spid="_x0000_s2091"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE24FD6-35FF-4F3B-94C3-011557691718}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5684,7 +5674,7 @@
                     <a14:compatExt spid="_x0000_s2092"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B9FE5-A069-4810-98C1-5C4659C4C825}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5731,7 +5721,7 @@
                     <a14:compatExt spid="_x0000_s2093"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A56155-E862-42F5-B77E-0514BB2F6178}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D080000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5804,7 +5794,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5871,7 +5861,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5938,7 +5928,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6005,7 +5995,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6072,7 +6062,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6139,7 +6129,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6206,7 +6196,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6273,7 +6263,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6340,7 +6330,7 @@
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6407,7 +6397,7 @@
                   <a14:compatExt spid="_x0000_s3082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6474,7 +6464,7 @@
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6541,7 +6531,7 @@
                   <a14:compatExt spid="_x0000_s3088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000100C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6608,7 +6598,7 @@
                   <a14:compatExt spid="_x0000_s3089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000110C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6675,7 +6665,7 @@
                   <a14:compatExt spid="_x0000_s3090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000120C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6742,7 +6732,7 @@
                   <a14:compatExt spid="_x0000_s3091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000130C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6809,7 +6799,7 @@
                   <a14:compatExt spid="_x0000_s3092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000140C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6876,7 +6866,7 @@
                   <a14:compatExt spid="_x0000_s3093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000150C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6943,7 +6933,7 @@
                   <a14:compatExt spid="_x0000_s3094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000160C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7010,7 +7000,7 @@
                   <a14:compatExt spid="_x0000_s3095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000170C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7077,7 +7067,7 @@
                   <a14:compatExt spid="_x0000_s3096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000180C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7144,7 +7134,7 @@
                   <a14:compatExt spid="_x0000_s3097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000190C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7211,7 +7201,7 @@
                   <a14:compatExt spid="_x0000_s3098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7278,7 +7268,7 @@
                   <a14:compatExt spid="_x0000_s3103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7345,7 +7335,7 @@
                   <a14:compatExt spid="_x0000_s3104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14FB73-63C6-4B22-A8A2-429D54A5447A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000200C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7412,7 +7402,7 @@
                   <a14:compatExt spid="_x0000_s3105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584FB4BA-937D-4FF9-AA0C-7AA8E671EA98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000210C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7479,7 +7469,7 @@
                   <a14:compatExt spid="_x0000_s3106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94D08A-4554-4CC3-9112-A0DE9AE6EB34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000220C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7546,7 +7536,7 @@
                   <a14:compatExt spid="_x0000_s3107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF432F57-E87B-4D00-8B6C-C8069392D468}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000230C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7613,7 +7603,7 @@
                   <a14:compatExt spid="_x0000_s3108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653988A8-4FF5-486A-91A9-114F35823D33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000240C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7680,7 +7670,7 @@
                   <a14:compatExt spid="_x0000_s3109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AC8E90-D4EF-46CE-9617-32026FA0C644}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000250C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7747,7 +7737,7 @@
                   <a14:compatExt spid="_x0000_s3110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B15130-7794-4B55-9344-415BD025699D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000260C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7814,7 +7804,7 @@
                   <a14:compatExt spid="_x0000_s3111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B5B32-871D-405F-B477-9616A7CF2BA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000270C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7881,7 +7871,7 @@
                   <a14:compatExt spid="_x0000_s3112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7723027-FD29-4247-9FAD-8E4781E3676F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000280C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7948,7 +7938,7 @@
                   <a14:compatExt spid="_x0000_s3113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9CCEF1-E26F-4F4F-AE69-19C9D8AC470D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000290C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8020,7 +8010,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C81492B-5490-418E-BFF9-BEE46E167908}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8087,7 +8077,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6C8046-2D55-447C-B335-E8F904DDD583}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8154,7 +8144,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45F2DE1-745F-4204-95BF-75EE1118EEF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8221,7 +8211,7 @@
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6393AD2B-7454-46E5-AF26-EFFDC0D667BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8288,7 +8278,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707C7D74-757C-4FCA-8EF9-67BF6D674FC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8355,7 +8345,7 @@
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C172CF-4983-4C6D-9119-E8B5BB39779F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8422,7 +8412,7 @@
                   <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C05035-2910-4C90-BFB0-775DF33B0FDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8489,7 +8479,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE07CD8E-555C-4FCE-BACE-1618E28F590A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8556,7 +8546,7 @@
                   <a14:compatExt spid="_x0000_s4105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D3B28D-246C-48D1-AF29-A10A9E1314F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8623,7 +8613,7 @@
                   <a14:compatExt spid="_x0000_s4106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25C07C1-A46D-4657-8649-1E832C297F81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8690,7 +8680,7 @@
                   <a14:compatExt spid="_x0000_s4107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44429B01-B6D0-4473-A6F1-9CF9E1F023BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8757,7 +8747,7 @@
                   <a14:compatExt spid="_x0000_s4108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C9490B-BC77-41A9-929C-9E5F95546DD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8824,7 +8814,7 @@
                   <a14:compatExt spid="_x0000_s4109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A1CAD3-5B5F-4E8D-AA43-CF8E4C49A004}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8891,7 +8881,7 @@
                   <a14:compatExt spid="_x0000_s4110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24051CC1-87E0-45BB-A3EA-068EE0628784}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8958,7 +8948,7 @@
                   <a14:compatExt spid="_x0000_s4111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1C42FF-41C7-4E72-B534-429764C7B697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9025,7 +9015,7 @@
                   <a14:compatExt spid="_x0000_s4112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F4FF86-6F06-4C78-B3FF-B4DE7F79CCE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9092,7 +9082,7 @@
                   <a14:compatExt spid="_x0000_s4113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A62518-046D-45E8-BC61-ACE598B4E9C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9159,7 +9149,7 @@
                   <a14:compatExt spid="_x0000_s4114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE36720-7BC6-4B24-9822-D63BCC6CABDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9226,7 +9216,7 @@
                   <a14:compatExt spid="_x0000_s4115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BB3D9C-8E20-42F5-AB49-1E2BEA0157F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9293,7 +9283,7 @@
                   <a14:compatExt spid="_x0000_s4116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DACAC6-0A28-427A-9658-4A626ACC2A6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9360,7 +9350,7 @@
                   <a14:compatExt spid="_x0000_s4117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF462DC-6475-4BB7-9F8B-B1F9224CAE49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9427,7 +9417,7 @@
                   <a14:compatExt spid="_x0000_s4118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A5D527-B402-46DD-9150-227569125062}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9494,7 +9484,7 @@
                   <a14:compatExt spid="_x0000_s4119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AED87C6-1696-4257-BD4E-9AC27FAA9648}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9561,7 +9551,7 @@
                   <a14:compatExt spid="_x0000_s4120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE24805-53A1-4C2F-B59D-0C11D4C11E64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9628,7 +9618,7 @@
                   <a14:compatExt spid="_x0000_s4121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB14EC49-BC2E-41E6-AA5D-1C1CBFFB251C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9695,7 +9685,7 @@
                   <a14:compatExt spid="_x0000_s4122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8195F1-60B8-4076-BF02-1DA773BAB8E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9762,7 +9752,7 @@
                   <a14:compatExt spid="_x0000_s4123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0230934B-8E5F-4AAC-AA86-75371C254C7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9829,7 +9819,7 @@
                   <a14:compatExt spid="_x0000_s4124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2868095C-9CA9-4B9C-A526-0A5740049923}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9896,7 +9886,7 @@
                   <a14:compatExt spid="_x0000_s4125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23182EC-1C37-49AF-903C-9A16216749B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9963,7 +9953,7 @@
                   <a14:compatExt spid="_x0000_s4126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28568CF-32D0-4B38-B75A-81D35EB525E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10030,7 +10020,7 @@
                   <a14:compatExt spid="_x0000_s4127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CB69FC-3FC3-4527-BDD3-5C5C8546B49C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10097,7 +10087,7 @@
                   <a14:compatExt spid="_x0000_s4128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1B226C-1006-4806-8C4C-2786702DA9C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10164,7 +10154,7 @@
                   <a14:compatExt spid="_x0000_s4129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06EE2B8-5C46-4A99-B59F-63C95DFD00BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10236,7 +10226,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7959CEDC-6D9F-4876-B368-FF00537AE205}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10303,7 +10293,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61309320-7E34-42A2-B3ED-20B2CB5B37C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10370,7 +10360,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA8378E-C361-4355-93A5-B927CD0E9251}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10437,7 +10427,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DC7535-AE18-49C4-99D4-9846F450155B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10504,7 +10494,7 @@
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BD02E0-161E-4262-993E-C52881111255}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10571,7 +10561,7 @@
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E656811B-B743-470F-964D-CEC1CD7FB6A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10638,7 +10628,7 @@
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64E420E-D0D8-4BD4-9D4E-24EA63A7BD42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10705,7 +10695,7 @@
                   <a14:compatExt spid="_x0000_s5128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC1C082-E005-45FA-AD0D-E5CD9570A143}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10772,7 +10762,7 @@
                   <a14:compatExt spid="_x0000_s5129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BD5250-BBD8-4960-89CC-FFA67761CE20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10839,7 +10829,7 @@
                   <a14:compatExt spid="_x0000_s5130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F5544F-48EF-4514-A5E7-53FDB9432F4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10906,7 +10896,7 @@
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E316E65-044A-4A46-A6E6-8AF0264C56FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10973,7 +10963,7 @@
                   <a14:compatExt spid="_x0000_s5132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC1962F-9C02-4CD1-BFCF-C96BB5C55445}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11040,7 +11030,7 @@
                   <a14:compatExt spid="_x0000_s5133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B453C8C4-D154-48FF-A43C-FE8366048944}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11107,7 +11097,7 @@
                   <a14:compatExt spid="_x0000_s5134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97267BD1-6240-4BC4-98CB-1923409E7172}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11174,7 +11164,7 @@
                   <a14:compatExt spid="_x0000_s5135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23023F2-1AAF-4EEC-A410-D42746F84B06}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11241,7 +11231,7 @@
                   <a14:compatExt spid="_x0000_s5136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E327A4-4232-4A6B-8873-9D6085DABAB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11308,7 +11298,7 @@
                   <a14:compatExt spid="_x0000_s5137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DEDA67-028D-40CB-A18E-478C53DA5085}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11375,7 +11365,7 @@
                   <a14:compatExt spid="_x0000_s5138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCAA23C-DC40-49ED-9F2F-7E0599F8421D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11442,7 +11432,7 @@
                   <a14:compatExt spid="_x0000_s5139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C005A1-F345-4EA9-923D-658688222664}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11509,7 +11499,7 @@
                   <a14:compatExt spid="_x0000_s5140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0AE968-5D5B-43E4-A66E-7CD894A40BD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11576,7 +11566,7 @@
                   <a14:compatExt spid="_x0000_s5141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFC6B17-A4E1-4ED4-AD1C-A50128B53A72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11643,7 +11633,7 @@
                   <a14:compatExt spid="_x0000_s5142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C175B1-0D81-4FD2-95C3-84F6922D7B2E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11710,7 +11700,7 @@
                   <a14:compatExt spid="_x0000_s5143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031AC317-7AFD-4638-9502-05F5C414F98C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11777,7 +11767,7 @@
                   <a14:compatExt spid="_x0000_s5144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6EFAAA-B43B-4526-8471-C92B22385541}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11844,7 +11834,7 @@
                   <a14:compatExt spid="_x0000_s5145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C2D787-D10B-4351-923C-7CBEDC4E7AB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11911,7 +11901,7 @@
                   <a14:compatExt spid="_x0000_s5146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F25D229-AAE7-46FB-9DB1-9C48AD47E1DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11978,7 +11968,7 @@
                   <a14:compatExt spid="_x0000_s5147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A115B1DA-A8F0-4156-9ACD-670D3A1CC9DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12045,7 +12035,7 @@
                   <a14:compatExt spid="_x0000_s5148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4120F809-9A73-46B6-9E74-879646A5BCFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12112,7 +12102,7 @@
                   <a14:compatExt spid="_x0000_s5149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E5CB98-1B9F-44BA-896A-98B834659539}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12179,7 +12169,7 @@
                   <a14:compatExt spid="_x0000_s5150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AAE14C-E840-4A61-8D86-DF30DB0144C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12246,7 +12236,7 @@
                   <a14:compatExt spid="_x0000_s5151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40686709-E158-4DB4-A4A7-6008C5D36B63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12313,7 +12303,7 @@
                   <a14:compatExt spid="_x0000_s5152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA921F2A-E72C-4263-972C-8A10E96B5A73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12380,7 +12370,7 @@
                   <a14:compatExt spid="_x0000_s5153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5E579D-D160-4014-9EE4-1B36794A5777}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12447,7 +12437,7 @@
                   <a14:compatExt spid="_x0000_s5154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05054E20-D28B-4083-AEA2-735CA541965E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12514,7 +12504,7 @@
                   <a14:compatExt spid="_x0000_s5155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1E9AD6-B45E-4C61-81E4-9C9D14F89E09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12581,7 +12571,7 @@
                   <a14:compatExt spid="_x0000_s5156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB0BAFD-BD9A-4015-A231-12AE8FA26537}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12648,7 +12638,7 @@
                   <a14:compatExt spid="_x0000_s5157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF45160F-6F9E-4962-8CDF-5A7D64C3CC8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12715,7 +12705,7 @@
                   <a14:compatExt spid="_x0000_s5158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C086AD90-3194-47A8-9214-F95649FE1C36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12782,7 +12772,7 @@
                   <a14:compatExt spid="_x0000_s5159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA2012D-442A-4EEB-AE18-CF2E738B852B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12849,7 +12839,7 @@
                   <a14:compatExt spid="_x0000_s5160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E3A4F6-DEBC-4340-993E-16BF6F3771B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12916,7 +12906,7 @@
                   <a14:compatExt spid="_x0000_s5161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54632FC-EFF5-4568-98DA-95E7DFBB09FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12983,7 +12973,7 @@
                   <a14:compatExt spid="_x0000_s5162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F4A77-2A4E-4347-982A-C3C596B7F213}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13055,7 +13045,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0BE4EB-574B-4CD2-8ED0-4727B356B8D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13122,7 +13112,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF1ADAA-D05B-4238-B675-3BC8CE8C689D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13189,7 +13179,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F8B169-E714-4BE6-A6E4-B4B461BD7537}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13256,7 +13246,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746156B3-F9BA-4718-A1B0-A90C7D50D789}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13323,7 +13313,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A301DEE-9767-47BD-99CD-88C92A0DA0EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13390,7 +13380,7 @@
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4FF3A5-F369-4072-B7C2-51765AB61A33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13457,7 +13447,7 @@
                   <a14:compatExt spid="_x0000_s6151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0E9399-4B60-4B6A-8332-AE563E5F6C1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13524,7 +13514,7 @@
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35AB530E-9182-4E72-88B5-2D3C3F6042A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13591,7 +13581,7 @@
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D665DD-2B11-43DE-8530-F8376E1F030C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13658,7 +13648,7 @@
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C397CA2-AD10-4833-9361-FF28494BEAA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13725,7 +13715,7 @@
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CDC7A3-9E16-4420-B64F-3AA9B09B098F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13792,7 +13782,7 @@
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379A400F-A1E7-4C3D-9E4B-2CD9F11B050E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13859,7 +13849,7 @@
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020E61A6-80D7-4FF9-BAB7-223EFBFCE6FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13926,7 +13916,7 @@
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6725D18-D44E-415F-B0FC-DB7D2E68FEF6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13993,7 +13983,7 @@
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E60D36-FF7D-40E8-8904-567C2E20363D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14060,7 +14050,7 @@
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A2F174-26C6-4543-B028-A61A57C2BC11}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14127,7 +14117,7 @@
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BDE615-DA9F-4409-BCD9-D6F489408487}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14194,7 +14184,7 @@
                   <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745A123B-1F06-44FF-A064-A73CFBDA7B96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14261,7 +14251,7 @@
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D2E97E-F0FE-4A65-8B4E-49E9BDAF9C14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14328,7 +14318,7 @@
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACB810D-C499-4955-8ED0-D9F76D6DD9B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14395,7 +14385,7 @@
                   <a14:compatExt spid="_x0000_s6169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870B966E-BC83-4A44-8325-79D74C901126}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14462,7 +14452,7 @@
                   <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853887E2-A331-403E-9506-C98328EB5F86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14529,7 +14519,7 @@
                   <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396975D2-3A21-46B5-8A34-A948D33F34E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14596,7 +14586,7 @@
                   <a14:compatExt spid="_x0000_s6172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16060527-9859-4F5A-B18A-CBC3D5D68573}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14663,7 +14653,7 @@
                   <a14:compatExt spid="_x0000_s6173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEFCBF3-5063-4180-BB77-6C8F0C96594A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14730,7 +14720,7 @@
                   <a14:compatExt spid="_x0000_s6174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F11931B-B32B-428A-B5C0-BD3596E6A2C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14797,7 +14787,7 @@
                   <a14:compatExt spid="_x0000_s6175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97326706-BCF0-4277-91B6-3B31F469D3CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15144,8 +15134,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15154,7 +15144,7 @@
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -15171,7 +15161,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -15217,9 +15207,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -15228,9 +15216,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -15239,7 +15225,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -15248,7 +15236,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -15302,7 +15292,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
@@ -15311,9 +15303,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -15322,9 +15312,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -16363,8 +16351,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16390,7 +16378,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -16418,9 +16406,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -16429,9 +16415,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -16441,7 +16425,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16451,7 +16435,9 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -16505,7 +16491,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -16523,9 +16511,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
@@ -16534,9 +16520,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -17581,7 +17565,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -17593,7 +17577,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -17607,7 +17591,7 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -17616,7 +17600,7 @@
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -17625,7 +17609,7 @@
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -17634,7 +17618,7 @@
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -17643,7 +17627,7 @@
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -17652,7 +17636,7 @@
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -17661,7 +17645,7 @@
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -17670,7 +17654,7 @@
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -17679,7 +17663,7 @@
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -17688,7 +17672,7 @@
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -17697,7 +17681,7 @@
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -18474,7 +18458,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -18486,7 +18470,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -18500,7 +18484,7 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -18509,7 +18493,7 @@
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -18518,7 +18502,7 @@
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -18527,7 +18511,7 @@
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -18536,7 +18520,7 @@
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -18545,7 +18529,7 @@
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -18554,7 +18538,7 @@
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -18563,7 +18547,7 @@
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -18572,7 +18556,7 @@
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -18581,7 +18565,7 @@
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -18590,7 +18574,7 @@
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19367,7 +19351,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -19379,7 +19363,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -19393,7 +19377,7 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -19402,7 +19386,7 @@
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -19411,7 +19395,7 @@
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -19420,7 +19404,7 @@
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -19429,7 +19413,7 @@
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -19438,7 +19422,7 @@
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -19447,7 +19431,7 @@
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -19456,7 +19440,7 @@
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -19465,7 +19449,7 @@
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -19474,7 +19458,7 @@
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -19483,7 +19467,7 @@
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19492,7 +19476,7 @@
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -19501,7 +19485,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -19510,7 +19494,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -20471,7 +20455,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20485,7 +20469,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -20497,7 +20481,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -20511,7 +20495,7 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -20520,7 +20504,7 @@
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -20529,29 +20513,29 @@
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -20560,35 +20544,35 @@
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
